--- a/RMPP/Exe 8.6C.xlsx
+++ b/RMPP/Exe 8.6C.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2452E8F-21A2-CD4C-82C5-E496DA86EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD67CD10-4FD7-5043-9E32-BFB635856D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="280" windowWidth="27720" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,25 +17,6 @@
     <sheet name="SUPER" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">SUPER!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">SUPER!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SUPER!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">SUPER!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">SUPER!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">SUPER!$B$2:$B$121</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">SUPER!$A$2:$A$121</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">SUPER!$B$1</definedName>
     <definedName name="SUPER">SUPER!$A$1:$B$121</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -52,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="20">
   <si>
     <t>Sex</t>
   </si>
@@ -95,6 +76,36 @@
   <si>
     <t xml:space="preserve">Mean Differential </t>
   </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>FTEST</t>
+  </si>
+  <si>
+    <t>"If the F-score is close to one, conclude that your hypothesis is correct and that the samples do come from populations with equal variances. If the F-score is far from one, then conclude that the populations probably have different variances." (BCCAMPUS Chapter 6 F-TEST) Accessed from https://opentextbc.ca/introductorybusinessstatistics/chapter/f-test-and-one-way-anova-2/) as our value is 1.22 we can conclude that the data sets we are looking at are comparable</t>
+  </si>
+  <si>
+    <t>PTEST</t>
+  </si>
+  <si>
+    <t>From our data we can see a 16.4% 8.68 difference between the mean values of Variable 1 (Males) and Variable 2 (Females) indicating that males earn more than Females. Actually, quite enjoyed the maths content this week not something I get to do that often brought back many hours spent doing A level physics but need to keep progressing with the module and making sure the upcoming submissions are done.</t>
+  </si>
+  <si>
+    <r>
+      <t>Using the Formula </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>=TTEST(SUPER!B2:B61,SUPER!B62:B121,2,2) we calculate the PTEST value to be 0.00141947 so the observed t is significant at the 1% level (two-tailed).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -130,6 +141,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,12 +213,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,84 +1854,82 @@
     </row>
     <row r="2" spans="1:3" ht="14" thickBot="1"/>
     <row r="3" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>52.913333333333334</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>44.233333333333348</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>233.12897175141231</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>190.17581920903714</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>60</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>1.2258602209314633</v>
       </c>
-      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>0.21824624019180686</v>
       </c>
-      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" ht="14" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1.5399566074040778</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,14 +1940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="5" max="5" width="25.796875" customWidth="1"/>
-    <col min="19" max="19" width="35.796875" customWidth="1"/>
+    <col min="19" max="19" width="97.3984375" customWidth="1"/>
     <col min="20" max="20" width="48" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
   </cols>
@@ -1945,7 +1978,7 @@
       <c r="B3" s="2">
         <v>54.6</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1964,11 +1997,11 @@
       <c r="B5" s="2">
         <v>58.2</v>
       </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8" t="s">
+      <c r="S5" s="7"/>
+      <c r="T5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="U5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1979,13 +2012,13 @@
       <c r="B6" s="2">
         <v>34.6</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <v>52.913333333333298</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <v>44.233333333333299</v>
       </c>
     </row>
@@ -1996,13 +2029,13 @@
       <c r="B7" s="2">
         <v>42.9</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <v>233.128971751412</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <v>190.175819209037</v>
       </c>
     </row>
@@ -2013,13 +2046,13 @@
       <c r="B8" s="2">
         <v>67.5</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <v>60</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <v>60</v>
       </c>
     </row>
@@ -2030,13 +2063,13 @@
       <c r="B9" s="2">
         <v>79.8</v>
       </c>
-      <c r="S9" s="8" t="s">
+      <c r="S9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>59</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <v>59</v>
       </c>
     </row>
@@ -2047,13 +2080,13 @@
       <c r="B10" s="2">
         <v>54.4</v>
       </c>
-      <c r="S10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T10" s="8">
+      <c r="S10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="7">
         <v>1.22586022093146</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21" ht="16">
       <c r="A11" s="1" t="s">
@@ -2062,13 +2095,13 @@
       <c r="B11" s="2">
         <v>47.3</v>
       </c>
-      <c r="S11" s="8" t="s">
+      <c r="S11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <v>0.21824624019180699</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="16">
       <c r="A12" s="1" t="s">
@@ -2077,13 +2110,13 @@
       <c r="B12" s="2">
         <v>66.400000000000006</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>1.53995660740408</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="16">
       <c r="A13" s="1" t="s">
@@ -2092,9 +2125,9 @@
       <c r="B13" s="2">
         <v>69</v>
       </c>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" ht="16">
       <c r="A14" s="1" t="s">
@@ -2103,14 +2136,14 @@
       <c r="B14" s="2">
         <v>62</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="7">
         <f>T6-U6</f>
         <v>8.68</v>
       </c>
-      <c r="U14" s="8"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" ht="17">
       <c r="A15" s="1" t="s">
@@ -2139,6 +2172,9 @@
       <c r="B17" s="2">
         <v>52.4</v>
       </c>
+      <c r="S17" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
@@ -2149,16 +2185,22 @@
       <c r="B18" s="2">
         <v>59.5</v>
       </c>
+      <c r="S18" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:21" ht="17">
+    <row r="19" spans="1:21" ht="71" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>59.1</v>
       </c>
+      <c r="S19" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
     </row>
@@ -2169,26 +2211,35 @@
       <c r="B20" s="2">
         <v>36.700000000000003</v>
       </c>
+      <c r="S20" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="1:21" ht="17">
+    <row r="21" spans="1:21" ht="29">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>54.6</v>
       </c>
+      <c r="S21" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="70">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>52.1</v>
       </c>
+      <c r="S22" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="1" t="s">
@@ -2984,11 +3035,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="S19" r:id="rId1" display="https://opentextbc.ca/introductorybusinessstatistics/chapter/f-test-and-one-way-anova-2/" xr:uid="{22429190-0667-D041-BF97-57487E7145DD}"/>
+    <hyperlink ref="S20" r:id="rId2" location="ptest" display="https://github.com/IJW2021/MyPortfolio/tree/gh-pages/RMPP - ptest" xr:uid="{1C3BB129-B62C-C14D-8058-3BE3372C6374}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>